--- a/nr-update-ml/ig/StructureDefinition-fr-drug-characteristic.xlsx
+++ b/nr-update-ml/ig/StructureDefinition-fr-drug-characteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-26T07:31:15+00:00</t>
+    <t>2025-07-26T08:31:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-ml/ig/StructureDefinition-fr-drug-characteristic.xlsx
+++ b/nr-update-ml/ig/StructureDefinition-fr-drug-characteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-26T08:31:58+00:00</t>
+    <t>2025-07-26T08:35:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-ml/ig/StructureDefinition-fr-drug-characteristic.xlsx
+++ b/nr-update-ml/ig/StructureDefinition-fr-drug-characteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-26T08:35:27+00:00</t>
+    <t>2025-07-27T10:46:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-ml/ig/StructureDefinition-fr-drug-characteristic.xlsx
+++ b/nr-update-ml/ig/StructureDefinition-fr-drug-characteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-27T10:46:48+00:00</t>
+    <t>2025-07-28T07:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-ml/ig/StructureDefinition-fr-drug-characteristic.xlsx
+++ b/nr-update-ml/ig/StructureDefinition-fr-drug-characteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T07:43:50+00:00</t>
+    <t>2025-07-28T07:50:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
